--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zutto\Desktop\Openclassrooms\Projet 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zutto\Desktop\Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D6EA77-6AA8-4541-9680-CC653894F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844425C6-1261-4140-A228-5F8D0700BA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -148,22 +148,34 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Montserrat"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="8"/>
       <name val="Montserrat"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Montserrat"/>
     </font>
   </fonts>
@@ -181,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -190,18 +202,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -212,9 +237,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -227,9 +250,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -242,171 +263,16 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -416,41 +282,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,287 +515,224 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12">
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="12">
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12">
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12">
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12">
+      <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="E11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
+      <c r="E12" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>